--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1149997.635716547</v>
+        <v>1159159.03921744</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1675438.956232712</v>
+        <v>1675438.956232711</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>295.7678311131579</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>331.8924726432703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838592</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
         <v>192.0665623188214</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>1.392639554639385</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>137.6634556292789</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>322.1173278919823</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>239.3135884893132</v>
+        <v>114.7053989184401</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>295.7678311131574</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>7.085665838712059</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>85.4556421029896</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>90.69811547110066</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>260.8767548402208</v>
+        <v>56.98500889837744</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>71.67037196991681</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>254.5361800398663</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>251.6719641693176</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>293.3984316117632</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>124.6385098879087</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.84935903930808</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>317.1195548090395</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>188.2196394312111</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T19" t="n">
-        <v>156.3460220671593</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>315.5099591703132</v>
       </c>
       <c r="C20" t="n">
-        <v>192.0524966157152</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>7.60108101544704</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>37.38100496017476</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>81.59419338597469</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.6235590017583</v>
       </c>
       <c r="G25" t="n">
         <v>165.525553994704</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>405.8322000963165</v>
+        <v>409.8064945845168</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1864042025732</v>
+        <v>279.2121097143728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>93.66420624454535</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>100.6857847341095</v>
       </c>
       <c r="G28" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.30841035179641</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S28" t="n">
         <v>181.0509578340822</v>
@@ -2809,7 +2809,7 @@
         <v>409.8064945845168</v>
       </c>
       <c r="H29" t="n">
-        <v>279.2121097143728</v>
+        <v>283.1864042025732</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.77443380478229</v>
+        <v>79.80013931658179</v>
       </c>
       <c r="T29" t="n">
         <v>199.03604613535</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>27.22530440493174</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.525553994704</v>
+        <v>54.13912336666158</v>
       </c>
       <c r="H31" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.30841035179641</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.43890183961379</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4114992376929</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.80013931658179</v>
+        <v>83.77443380478229</v>
       </c>
       <c r="T32" t="n">
         <v>199.03604613535</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>365.7568061902683</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>81.59419338597469</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S34" t="n">
         <v>181.0509578340822</v>
@@ -3243,7 +3243,7 @@
         <v>217.4114992376929</v>
       </c>
       <c r="U34" t="n">
-        <v>159.2727171419565</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8064945845168</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1864042025732</v>
+        <v>279.2121097143728</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.77443380478229</v>
       </c>
       <c r="T35" t="n">
-        <v>195.0617516471497</v>
+        <v>199.03604613535</v>
       </c>
       <c r="U35" t="n">
         <v>250.905953473387</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.525553994704</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.43890183961379</v>
       </c>
       <c r="S37" t="n">
-        <v>122.3378514921825</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4114992376929</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>47.88432292138138</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>166.4717564143943</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3678,7 +3678,7 @@
         <v>165.525553994704</v>
       </c>
       <c r="H40" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S40" t="n">
         <v>181.0509578340822</v>
@@ -3717,13 +3717,13 @@
         <v>217.4114992376929</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184551609377</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>213.8312596442302</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>402.901751253511</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8064945845168</v>
+        <v>405.8322000963165</v>
       </c>
       <c r="H41" t="n">
         <v>283.1864042025732</v>
@@ -3915,7 +3915,7 @@
         <v>165.525553994704</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S43" t="n">
-        <v>140.7512126957861</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T43" t="n">
         <v>217.4114992376929</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>197.2483620353476</v>
       </c>
     </row>
     <row r="44">
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>164.9431762020799</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0509578340822</v>
+        <v>54.13912336666156</v>
       </c>
       <c r="T46" t="n">
         <v>217.4114992376929</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1586.913505738324</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="C2" t="n">
-        <v>1217.950988797912</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="D2" t="n">
-        <v>859.685290191162</v>
+        <v>1146.776328918641</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>760.9880763203964</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>350.0021715307889</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
         <v>795.755353087291</v>
@@ -4351,31 +4351,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>1973.513345802446</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y2" t="n">
-        <v>1973.513345802446</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>168.0008189145207</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>614.5430248380235</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>909.2465818694952</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.6600800990971</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>349.6600800990971</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>199.5434406867613</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5434406867613</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>52.65349318885097</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>52.65349318885097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>52.65349318885097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="W4" t="n">
-        <v>570.4526592426272</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="X4" t="n">
-        <v>570.4526592426272</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>349.6600800990971</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1966.993846941858</v>
+        <v>1810.593301929726</v>
       </c>
       <c r="C5" t="n">
-        <v>1598.031330001447</v>
+        <v>1441.630784989314</v>
       </c>
       <c r="D5" t="n">
-        <v>1239.765631394696</v>
+        <v>1083.365086382564</v>
       </c>
       <c r="E5" t="n">
-        <v>853.9773787964518</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>442.9914740068443</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4564,55 +4564,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.59368700598</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>2353.59368700598</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X5" t="n">
-        <v>2353.59368700598</v>
+        <v>1810.593301929726</v>
       </c>
       <c r="Y5" t="n">
-        <v>2353.59368700598</v>
+        <v>1810.593301929726</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>220.18296949591</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800311</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1394.715222610545</v>
+        <v>1520.582080762941</v>
       </c>
       <c r="V7" t="n">
-        <v>1140.030734404658</v>
+        <v>1265.897592557054</v>
       </c>
       <c r="W7" t="n">
-        <v>850.6135643676972</v>
+        <v>976.4804225200937</v>
       </c>
       <c r="X7" t="n">
-        <v>622.6240134696799</v>
+        <v>748.4908716220764</v>
       </c>
       <c r="Y7" t="n">
-        <v>401.8314343261497</v>
+        <v>527.6982924785463</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1505.042027525391</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C8" t="n">
-        <v>1505.042027525391</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="D8" t="n">
-        <v>1146.77632891864</v>
+        <v>933.2161775761949</v>
       </c>
       <c r="E8" t="n">
-        <v>760.988076320396</v>
+        <v>547.4279249779506</v>
       </c>
       <c r="F8" t="n">
-        <v>350.0021715307884</v>
+        <v>136.4420201883431</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>124.777673953036</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4825,31 +4825,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y8" t="n">
-        <v>1505.042027525391</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>837.079342274803</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>686.9627028624673</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>539.0496092800742</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>392.1596617821638</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.831862022881</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.147373816994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.730203780033</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1250.836169983545</v>
+        <v>1250.80968089488</v>
       </c>
       <c r="C11" t="n">
-        <v>1250.836169983545</v>
+        <v>881.8471639544687</v>
       </c>
       <c r="D11" t="n">
-        <v>892.5704713767946</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535337</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y11" t="n">
-        <v>1514.348043559526</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C13" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D13" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E13" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.608663915319</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V13" t="n">
-        <v>1735.608663915319</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W13" t="n">
-        <v>1478.501411349798</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X13" t="n">
-        <v>1250.51186045178</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1517.887535471215</v>
+        <v>1901.535346136983</v>
       </c>
       <c r="C14" t="n">
-        <v>1148.925018530804</v>
+        <v>1532.572829196572</v>
       </c>
       <c r="D14" t="n">
-        <v>790.6593199240531</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>404.8710673258088</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>404.8710673258088</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>404.8710673258088</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810557</v>
@@ -5290,7 +5290,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V14" t="n">
-        <v>2630.721789066531</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W14" t="n">
-        <v>2277.953133796417</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X14" t="n">
-        <v>1904.487375535337</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="Y14" t="n">
-        <v>1904.487375535337</v>
+        <v>2288.135186201105</v>
       </c>
     </row>
     <row r="15">
@@ -5351,19 +5351,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>848.0708164780106</v>
+        <v>486.5398815319801</v>
       </c>
       <c r="C16" t="n">
-        <v>679.1346335501037</v>
+        <v>486.5398815319801</v>
       </c>
       <c r="D16" t="n">
-        <v>529.0179941377679</v>
+        <v>486.5398815319801</v>
       </c>
       <c r="E16" t="n">
-        <v>381.1049005553748</v>
+        <v>338.626787949587</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>338.626787949587</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5436,16 +5436,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V16" t="n">
-        <v>1383.507193008249</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="W16" t="n">
-        <v>1094.090022971289</v>
+        <v>935.3220115735276</v>
       </c>
       <c r="X16" t="n">
-        <v>866.1004720732712</v>
+        <v>707.3324606755102</v>
       </c>
       <c r="Y16" t="n">
-        <v>848.0708164780106</v>
+        <v>486.5398815319801</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1632.511388127729</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="C17" t="n">
-        <v>1263.548871187317</v>
+        <v>1137.401303008948</v>
       </c>
       <c r="D17" t="n">
-        <v>905.2831725805665</v>
+        <v>1137.401303008948</v>
       </c>
       <c r="E17" t="n">
-        <v>519.4949199823222</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F17" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
@@ -5515,25 +5515,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V17" t="n">
-        <v>3135.484973698856</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W17" t="n">
-        <v>2782.716318428742</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X17" t="n">
-        <v>2409.250560167662</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y17" t="n">
-        <v>2019.11122819185</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="18">
@@ -5594,13 +5594,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>403.1511359853714</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218342</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T19" t="n">
-        <v>1577.683389100006</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U19" t="n">
-        <v>1577.683389100006</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V19" t="n">
-        <v>1322.998900894119</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W19" t="n">
-        <v>1033.581730857159</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X19" t="n">
-        <v>805.5921799591413</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y19" t="n">
-        <v>584.7996008156111</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1514.348043559525</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="C20" t="n">
-        <v>1320.35562273557</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
         <v>2630.721789066531</v>
       </c>
       <c r="W20" t="n">
-        <v>2277.953133796416</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X20" t="n">
-        <v>1904.487375535336</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y20" t="n">
-        <v>1514.348043559525</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="21">
@@ -5822,28 +5822,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241.8928126690271</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C22" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D22" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658018</v>
+        <v>1697.850073046456</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>1408.747206172099</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.740577577775</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W22" t="n">
-        <v>872.3234075408143</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X22" t="n">
-        <v>644.3338566427969</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y22" t="n">
-        <v>423.5412774992668</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="23">
@@ -6065,28 +6065,28 @@
         <v>93.73723964344723</v>
       </c>
       <c r="I24" t="n">
-        <v>95.44706852746403</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="J24" t="n">
-        <v>244.9357666236176</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="K24" t="n">
-        <v>578.5905866043838</v>
+        <v>427.3920596242134</v>
       </c>
       <c r="L24" t="n">
-        <v>1073.553208785907</v>
+        <v>922.3546818057368</v>
       </c>
       <c r="M24" t="n">
-        <v>1345.174558195681</v>
+        <v>1519.309584185187</v>
       </c>
       <c r="N24" t="n">
-        <v>1345.174558195681</v>
+        <v>1578.222820179848</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.686534775637</v>
+        <v>2129.734796759804</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.99045189251</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.038713876677</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>512.2893290164841</v>
+        <v>693.9377938467238</v>
       </c>
       <c r="C25" t="n">
-        <v>343.3531460885772</v>
+        <v>693.9377938467238</v>
       </c>
       <c r="D25" t="n">
-        <v>260.934768931027</v>
+        <v>543.8211544343881</v>
       </c>
       <c r="E25" t="n">
-        <v>260.934768931027</v>
+        <v>395.9080608519949</v>
       </c>
       <c r="F25" t="n">
         <v>260.934768931027</v>
@@ -6217,28 +6217,28 @@
         <v>789.7156278241439</v>
       </c>
       <c r="G26" t="n">
-        <v>379.7841125753393</v>
+        <v>375.7696736983693</v>
       </c>
       <c r="H26" t="n">
         <v>93.73723964344723</v>
       </c>
       <c r="I26" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557821</v>
       </c>
       <c r="J26" t="n">
-        <v>377.7275109623929</v>
+        <v>377.7275109623924</v>
       </c>
       <c r="K26" t="n">
-        <v>851.9898429966356</v>
+        <v>851.9898429966349</v>
       </c>
       <c r="L26" t="n">
-        <v>1477.25596488715</v>
+        <v>1477.255964887149</v>
       </c>
       <c r="M26" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818159</v>
       </c>
       <c r="N26" t="n">
-        <v>2948.436788907898</v>
+        <v>2948.436788907897</v>
       </c>
       <c r="O26" t="n">
         <v>3637.434109665869</v>
@@ -6302,28 +6302,28 @@
         <v>93.73723964344723</v>
       </c>
       <c r="I27" t="n">
-        <v>95.44706852746403</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="J27" t="n">
-        <v>244.9357666236176</v>
+        <v>243.2259377396008</v>
       </c>
       <c r="K27" t="n">
-        <v>578.5905866043838</v>
+        <v>486.3052956188741</v>
       </c>
       <c r="L27" t="n">
-        <v>1073.553208785907</v>
+        <v>981.2679178003975</v>
       </c>
       <c r="M27" t="n">
-        <v>1345.174558195681</v>
+        <v>1578.222820179848</v>
       </c>
       <c r="N27" t="n">
-        <v>1345.174558195681</v>
+        <v>1578.222820179848</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.686534775637</v>
+        <v>2129.734796759804</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.99045189251</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.038713876677</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.3993308746797</v>
+        <v>512.2893290164841</v>
       </c>
       <c r="C28" t="n">
-        <v>484.7890215367551</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="D28" t="n">
-        <v>484.7890215367551</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="E28" t="n">
-        <v>484.7890215367551</v>
+        <v>195.4400525061841</v>
       </c>
       <c r="F28" t="n">
-        <v>484.7890215367551</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="G28" t="n">
-        <v>317.5914922491753</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="H28" t="n">
-        <v>175.8669470695042</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I28" t="n">
         <v>93.73723964344723</v>
@@ -6408,28 +6408,28 @@
         <v>2445.494219020781</v>
       </c>
       <c r="R28" t="n">
-        <v>2445.494219020781</v>
+        <v>2378.384217162586</v>
       </c>
       <c r="S28" t="n">
-        <v>2262.614463632819</v>
+        <v>2195.504461774624</v>
       </c>
       <c r="T28" t="n">
-        <v>2043.006888645251</v>
+        <v>1975.896886787055</v>
       </c>
       <c r="U28" t="n">
-        <v>1753.931583989315</v>
+        <v>1686.821582131119</v>
       </c>
       <c r="V28" t="n">
-        <v>1499.247095783428</v>
+        <v>1432.137093925232</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.829925746467</v>
+        <v>1142.719923888271</v>
       </c>
       <c r="X28" t="n">
-        <v>981.8403748484495</v>
+        <v>914.730372990254</v>
       </c>
       <c r="Y28" t="n">
-        <v>761.0477957049194</v>
+        <v>693.9377938467238</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2313.718000759158</v>
+        <v>2317.732439636128</v>
       </c>
       <c r="C29" t="n">
-        <v>1944.755483818746</v>
+        <v>1948.769922695716</v>
       </c>
       <c r="D29" t="n">
-        <v>1586.489785211996</v>
+        <v>1590.504224088966</v>
       </c>
       <c r="E29" t="n">
-        <v>1200.701532613751</v>
+        <v>1204.715971490721</v>
       </c>
       <c r="F29" t="n">
-        <v>789.7156278241439</v>
+        <v>793.7300667011139</v>
       </c>
       <c r="G29" t="n">
-        <v>375.7696736983693</v>
+        <v>379.7841125753393</v>
       </c>
       <c r="H29" t="n">
-        <v>93.73723964344723</v>
+        <v>93.73723964344721</v>
       </c>
       <c r="I29" t="n">
-        <v>95.14107549557821</v>
+        <v>95.14107549557832</v>
       </c>
       <c r="J29" t="n">
-        <v>377.7275109623924</v>
+        <v>377.7275109623928</v>
       </c>
       <c r="K29" t="n">
-        <v>851.9898429966349</v>
+        <v>851.9898429966352</v>
       </c>
       <c r="L29" t="n">
-        <v>1477.255964887149</v>
+        <v>1477.25596488715</v>
       </c>
       <c r="M29" t="n">
         <v>2204.654438818159</v>
@@ -6478,37 +6478,37 @@
         <v>2948.436788907897</v>
       </c>
       <c r="O29" t="n">
-        <v>3637.434109665869</v>
+        <v>3637.434109665868</v>
       </c>
       <c r="P29" t="n">
-        <v>4190.976381557452</v>
+        <v>4190.976381557451</v>
       </c>
       <c r="Q29" t="n">
-        <v>4558.490828317809</v>
+        <v>4558.490828317808</v>
       </c>
       <c r="R29" t="n">
         <v>4686.861982172361</v>
       </c>
       <c r="S29" t="n">
-        <v>4602.24134196551</v>
+        <v>4606.25578084248</v>
       </c>
       <c r="T29" t="n">
-        <v>4401.194830717682</v>
+        <v>4405.209269594651</v>
       </c>
       <c r="U29" t="n">
-        <v>4147.754473673856</v>
+        <v>4151.768912550826</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.691586330286</v>
+        <v>3820.706025207256</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.922931060171</v>
+        <v>3467.937369937141</v>
       </c>
       <c r="X29" t="n">
-        <v>3090.457172799091</v>
+        <v>3094.471611676061</v>
       </c>
       <c r="Y29" t="n">
-        <v>2700.31784082328</v>
+        <v>2704.33227970025</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.418045479447</v>
       </c>
       <c r="H30" t="n">
-        <v>93.73723964344723</v>
+        <v>93.73723964344721</v>
       </c>
       <c r="I30" t="n">
-        <v>95.44706852746403</v>
+        <v>95.44706852746401</v>
       </c>
       <c r="J30" t="n">
         <v>244.9357666236176</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>512.2893290164841</v>
+        <v>762.2790862626414</v>
       </c>
       <c r="C31" t="n">
-        <v>484.7890215367551</v>
+        <v>593.3429033347345</v>
       </c>
       <c r="D31" t="n">
-        <v>484.7890215367551</v>
+        <v>443.2262639223987</v>
       </c>
       <c r="E31" t="n">
-        <v>484.7890215367551</v>
+        <v>295.3131703400056</v>
       </c>
       <c r="F31" t="n">
-        <v>484.7890215367551</v>
+        <v>148.4232228420953</v>
       </c>
       <c r="G31" t="n">
-        <v>317.5914922491753</v>
+        <v>93.73723964344721</v>
       </c>
       <c r="H31" t="n">
-        <v>175.8669470695042</v>
+        <v>93.73723964344721</v>
       </c>
       <c r="I31" t="n">
-        <v>93.73723964344723</v>
+        <v>93.73723964344721</v>
       </c>
       <c r="J31" t="n">
         <v>173.8741688132293</v>
@@ -6645,28 +6645,28 @@
         <v>2445.494219020781</v>
       </c>
       <c r="R31" t="n">
-        <v>2378.384217162586</v>
+        <v>2445.494219020781</v>
       </c>
       <c r="S31" t="n">
-        <v>2195.504461774624</v>
+        <v>2445.494219020781</v>
       </c>
       <c r="T31" t="n">
-        <v>1975.896886787055</v>
+        <v>2225.886644033213</v>
       </c>
       <c r="U31" t="n">
-        <v>1686.821582131119</v>
+        <v>1936.811339377276</v>
       </c>
       <c r="V31" t="n">
-        <v>1432.137093925232</v>
+        <v>1682.126851171389</v>
       </c>
       <c r="W31" t="n">
-        <v>1142.719923888271</v>
+        <v>1392.709681134429</v>
       </c>
       <c r="X31" t="n">
-        <v>914.730372990254</v>
+        <v>1164.720130236411</v>
       </c>
       <c r="Y31" t="n">
-        <v>693.9377938467238</v>
+        <v>943.9275510928811</v>
       </c>
     </row>
     <row r="32">
@@ -6697,10 +6697,10 @@
         <v>93.73723964344723</v>
       </c>
       <c r="I32" t="n">
-        <v>95.14107549557831</v>
+        <v>95.14107549557843</v>
       </c>
       <c r="J32" t="n">
-        <v>377.7275109623928</v>
+        <v>377.7275109623929</v>
       </c>
       <c r="K32" t="n">
         <v>851.9898429966352</v>
@@ -6709,13 +6709,13 @@
         <v>1477.25596488715</v>
       </c>
       <c r="M32" t="n">
-        <v>2204.654438818161</v>
+        <v>2204.654438818159</v>
       </c>
       <c r="N32" t="n">
-        <v>2948.436788907899</v>
+        <v>2948.436788907897</v>
       </c>
       <c r="O32" t="n">
-        <v>3637.43410966587</v>
+        <v>3637.434109665869</v>
       </c>
       <c r="P32" t="n">
         <v>4190.976381557452</v>
@@ -6727,19 +6727,19 @@
         <v>4686.861982172361</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.255780842481</v>
+        <v>4602.24134196551</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717682</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.754473673856</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330286</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060171</v>
       </c>
       <c r="X32" t="n">
         <v>3094.471611676062</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.5931030639933</v>
+        <v>512.2893290164841</v>
       </c>
       <c r="C34" t="n">
-        <v>538.6569201360865</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="D34" t="n">
-        <v>388.5402807237507</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="E34" t="n">
-        <v>240.6271871413576</v>
+        <v>260.934768931027</v>
       </c>
       <c r="F34" t="n">
-        <v>93.73723964344723</v>
+        <v>260.934768931027</v>
       </c>
       <c r="G34" t="n">
         <v>93.73723964344723</v>
@@ -6882,28 +6882,28 @@
         <v>2445.494219020781</v>
       </c>
       <c r="R34" t="n">
-        <v>2445.494219020781</v>
+        <v>2378.384217162586</v>
       </c>
       <c r="S34" t="n">
-        <v>2262.614463632819</v>
+        <v>2195.504461774624</v>
       </c>
       <c r="T34" t="n">
-        <v>2043.006888645251</v>
+        <v>1975.896886787055</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.125356178628</v>
+        <v>1686.821582131119</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.440867972741</v>
+        <v>1432.137093925232</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.023697935781</v>
+        <v>1142.719923888271</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.034147037763</v>
+        <v>914.730372990254</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.2415678942331</v>
+        <v>693.9377938467238</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759158</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.769922695716</v>
+        <v>1944.755483818746</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.504224088966</v>
+        <v>1586.489785211996</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.715971490721</v>
+        <v>1200.701532613751</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7300667011139</v>
+        <v>789.7156278241439</v>
       </c>
       <c r="G35" t="n">
-        <v>379.7841125753393</v>
+        <v>375.7696736983693</v>
       </c>
       <c r="H35" t="n">
-        <v>93.73723964344721</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I35" t="n">
         <v>95.14107549557832</v>
@@ -6943,46 +6943,46 @@
         <v>851.9898429966352</v>
       </c>
       <c r="L35" t="n">
-        <v>1477.25596488715</v>
+        <v>1477.255964887151</v>
       </c>
       <c r="M35" t="n">
-        <v>2204.654438818159</v>
+        <v>2204.65443881816</v>
       </c>
       <c r="N35" t="n">
-        <v>2948.436788907897</v>
+        <v>2948.436788907898</v>
       </c>
       <c r="O35" t="n">
-        <v>3637.434109665868</v>
+        <v>3637.43410966587</v>
       </c>
       <c r="P35" t="n">
-        <v>4190.976381557451</v>
+        <v>4190.976381557452</v>
       </c>
       <c r="Q35" t="n">
-        <v>4558.490828317808</v>
+        <v>4558.490828317809</v>
       </c>
       <c r="R35" t="n">
         <v>4686.861982172361</v>
       </c>
       <c r="S35" t="n">
-        <v>4602.241341965509</v>
+        <v>4602.24134196551</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.209269594651</v>
+        <v>4401.194830717682</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.768912550826</v>
+        <v>4147.754473673856</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330286</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.937369937141</v>
+        <v>3463.922931060171</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.471611676061</v>
+        <v>3090.457172799091</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.31784082328</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.418045479447</v>
       </c>
       <c r="H36" t="n">
-        <v>93.73723964344721</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I36" t="n">
-        <v>95.44706852746401</v>
+        <v>95.44706852746403</v>
       </c>
       <c r="J36" t="n">
         <v>244.9357666236176</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.595497038605</v>
+        <v>874.7906323515731</v>
       </c>
       <c r="C37" t="n">
-        <v>402.6593141106981</v>
+        <v>705.8544494236662</v>
       </c>
       <c r="D37" t="n">
-        <v>402.6593141106981</v>
+        <v>555.7378100113305</v>
       </c>
       <c r="E37" t="n">
-        <v>402.6593141106981</v>
+        <v>407.8247164289373</v>
       </c>
       <c r="F37" t="n">
-        <v>402.6593141106981</v>
+        <v>260.934768931027</v>
       </c>
       <c r="G37" t="n">
-        <v>235.4617848231183</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="H37" t="n">
-        <v>93.73723964344721</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I37" t="n">
-        <v>93.73723964344721</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="J37" t="n">
         <v>173.8741688132293</v>
@@ -7122,25 +7122,25 @@
         <v>2378.384217162586</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.810629796745</v>
+        <v>2378.384217162586</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.203054809176</v>
+        <v>2158.776642175017</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.12775015324</v>
+        <v>1869.701337519081</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.443261947353</v>
+        <v>1615.016849313194</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.026091910392</v>
+        <v>1325.599679276233</v>
       </c>
       <c r="X37" t="n">
-        <v>974.0365410123749</v>
+        <v>1277.231676325343</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.2439618688447</v>
+        <v>1056.439097181813</v>
       </c>
     </row>
     <row r="38">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.5789946033374</v>
+        <v>874.7906323515731</v>
       </c>
       <c r="C40" t="n">
-        <v>847.5789946033374</v>
+        <v>705.8544494236662</v>
       </c>
       <c r="D40" t="n">
-        <v>697.4623551910016</v>
+        <v>555.7378100113305</v>
       </c>
       <c r="E40" t="n">
-        <v>549.5492616086085</v>
+        <v>407.8247164289373</v>
       </c>
       <c r="F40" t="n">
-        <v>402.6593141106981</v>
+        <v>260.934768931027</v>
       </c>
       <c r="G40" t="n">
-        <v>235.4617848231183</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="H40" t="n">
         <v>93.73723964344723</v>
@@ -7356,28 +7356,28 @@
         <v>2445.494219020781</v>
       </c>
       <c r="R40" t="n">
-        <v>2445.494219020781</v>
+        <v>2378.384217162586</v>
       </c>
       <c r="S40" t="n">
-        <v>2262.614463632819</v>
+        <v>2195.504461774624</v>
       </c>
       <c r="T40" t="n">
-        <v>2043.006888645251</v>
+        <v>1975.896886787055</v>
       </c>
       <c r="U40" t="n">
-        <v>1753.931583989315</v>
+        <v>1975.896886787055</v>
       </c>
       <c r="V40" t="n">
-        <v>1753.931583989315</v>
+        <v>1721.212398581168</v>
       </c>
       <c r="W40" t="n">
-        <v>1464.514413952354</v>
+        <v>1505.22122722336</v>
       </c>
       <c r="X40" t="n">
-        <v>1236.524863054336</v>
+        <v>1277.231676325343</v>
       </c>
       <c r="Y40" t="n">
-        <v>1015.732283910806</v>
+        <v>1056.439097181813</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1200.701532613751</v>
       </c>
       <c r="F41" t="n">
-        <v>793.730066701114</v>
+        <v>789.7156278241439</v>
       </c>
       <c r="G41" t="n">
         <v>379.7841125753393</v>
@@ -7408,25 +7408,25 @@
         <v>93.73723964344723</v>
       </c>
       <c r="I41" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557821</v>
       </c>
       <c r="J41" t="n">
-        <v>377.7275109623934</v>
+        <v>377.7275109623924</v>
       </c>
       <c r="K41" t="n">
-        <v>851.9898429966352</v>
+        <v>851.9898429966349</v>
       </c>
       <c r="L41" t="n">
-        <v>1477.25596488715</v>
+        <v>1477.255964887149</v>
       </c>
       <c r="M41" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818159</v>
       </c>
       <c r="N41" t="n">
-        <v>2948.436788907898</v>
+        <v>2948.436788907897</v>
       </c>
       <c r="O41" t="n">
-        <v>3637.434109665868</v>
+        <v>3637.434109665869</v>
       </c>
       <c r="P41" t="n">
         <v>4190.976381557452</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.7906323515731</v>
+        <v>1016.515177531244</v>
       </c>
       <c r="C43" t="n">
-        <v>705.8544494236662</v>
+        <v>847.5789946033374</v>
       </c>
       <c r="D43" t="n">
-        <v>555.7378100113305</v>
+        <v>697.4623551910016</v>
       </c>
       <c r="E43" t="n">
-        <v>407.8247164289373</v>
+        <v>549.5492616086085</v>
       </c>
       <c r="F43" t="n">
-        <v>260.934768931027</v>
+        <v>402.6593141106981</v>
       </c>
       <c r="G43" t="n">
-        <v>93.73723964344723</v>
+        <v>235.4617848231183</v>
       </c>
       <c r="H43" t="n">
         <v>93.73723964344723</v>
@@ -7593,28 +7593,28 @@
         <v>2445.494219020781</v>
       </c>
       <c r="R43" t="n">
-        <v>2445.494219020781</v>
+        <v>2378.384217162586</v>
       </c>
       <c r="S43" t="n">
-        <v>2303.321276903825</v>
+        <v>2195.504461774624</v>
       </c>
       <c r="T43" t="n">
-        <v>2083.713701916257</v>
+        <v>1975.896886787055</v>
       </c>
       <c r="U43" t="n">
-        <v>1794.638397260321</v>
+        <v>1686.821582131119</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.638397260321</v>
+        <v>1686.821582131119</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.22122722336</v>
+        <v>1397.404412094158</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.231676325343</v>
+        <v>1397.404412094158</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.439097181813</v>
+        <v>1198.163642361484</v>
       </c>
     </row>
     <row r="44">
@@ -7645,22 +7645,22 @@
         <v>93.73723964344723</v>
       </c>
       <c r="I44" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557821</v>
       </c>
       <c r="J44" t="n">
-        <v>377.7275109623934</v>
+        <v>377.7275109623924</v>
       </c>
       <c r="K44" t="n">
-        <v>851.9898429966352</v>
+        <v>851.9898429966349</v>
       </c>
       <c r="L44" t="n">
-        <v>1477.255964887151</v>
+        <v>1477.255964887149</v>
       </c>
       <c r="M44" t="n">
-        <v>2204.654438818161</v>
+        <v>2204.654438818159</v>
       </c>
       <c r="N44" t="n">
-        <v>2948.436788907899</v>
+        <v>2948.436788907897</v>
       </c>
       <c r="O44" t="n">
         <v>3637.434109665869</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>579.3993308746797</v>
+        <v>707.5931030639933</v>
       </c>
       <c r="C46" t="n">
-        <v>410.4631479467728</v>
+        <v>538.6569201360865</v>
       </c>
       <c r="D46" t="n">
-        <v>260.346508534437</v>
+        <v>388.5402807237507</v>
       </c>
       <c r="E46" t="n">
-        <v>260.346508534437</v>
+        <v>240.6271871413576</v>
       </c>
       <c r="F46" t="n">
-        <v>260.346508534437</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="G46" t="n">
         <v>93.73723964344723</v>
@@ -7833,25 +7833,25 @@
         <v>2445.494219020781</v>
       </c>
       <c r="S46" t="n">
-        <v>2262.614463632819</v>
+        <v>2390.808235822133</v>
       </c>
       <c r="T46" t="n">
-        <v>2043.006888645251</v>
+        <v>2171.200660834565</v>
       </c>
       <c r="U46" t="n">
-        <v>1753.931583989315</v>
+        <v>1882.125356178628</v>
       </c>
       <c r="V46" t="n">
-        <v>1499.247095783428</v>
+        <v>1627.440867972741</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.829925746467</v>
+        <v>1338.023697935781</v>
       </c>
       <c r="X46" t="n">
-        <v>981.8403748484495</v>
+        <v>1110.034147037763</v>
       </c>
       <c r="Y46" t="n">
-        <v>761.0477957049194</v>
+        <v>889.2415678942331</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566602</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515143</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>121.8570868232597</v>
+        <v>325.7488327651031</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356961</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>31.98681829672469</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>103.0110774513654</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.209332775557243</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>41.3872983711195</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.7352943127867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>64.81081526322231</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>139.5326190389238</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,13 +23940,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T19" t="n">
-        <v>63.20292720900994</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>67.22388249316742</v>
       </c>
       <c r="C20" t="n">
-        <v>173.2203951552924</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>159.6457400831808</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>182.1679443159944</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>67.02127963223766</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>11.79748902117299</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.974294488200371</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.974294488200314</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>73.58261485408248</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>44.73526328882176</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.30841035179641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.43890183961379</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.974294488200314</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>3.974294488200499</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>140.0215166936961</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.3864306280424</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.30841035179641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.974294488200499</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>3.974294488200712</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>64.83976926059448</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.3072997278744</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.43890183961379</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>126.9118344674205</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3.974294488200314</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>3.974294488200371</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I37" t="n">
         <v>81.30841035179641</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>58.71310634189969</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>177.8253324676558</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13.360223767543</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I40" t="n">
         <v>81.30841035179641</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.43890183961379</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>72.69173869236079</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3.974294488200428</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3.974294488200371</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.30841035179641</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.43890183961379</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>40.29974513829606</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>21.33629131674718</v>
       </c>
     </row>
     <row r="44">
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5823777926241007</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H46" t="n">
         <v>140.3072997278744</v>
@@ -26073,7 +26073,7 @@
         <v>66.43890183961379</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>126.9118344674206</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>808662.5101618116</v>
+        <v>808662.5101618115</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>955301.816996444</v>
+        <v>955301.8169964441</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>955301.816996444</v>
+        <v>955301.8169964441</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>955301.8169964441</v>
+        <v>955301.8169964439</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>955301.816996444</v>
+        <v>955301.8169964441</v>
       </c>
     </row>
     <row r="14">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="F2" t="n">
         <v>392146.6638165588</v>
@@ -26334,25 +26334,25 @@
         <v>392146.6638165588</v>
       </c>
       <c r="I2" t="n">
-        <v>463906.3246079747</v>
+        <v>463906.3246079746</v>
       </c>
       <c r="J2" t="n">
         <v>463906.3246079746</v>
       </c>
       <c r="K2" t="n">
-        <v>463906.3246079746</v>
+        <v>463906.3246079747</v>
       </c>
       <c r="L2" t="n">
         <v>463906.3246079746</v>
       </c>
       <c r="M2" t="n">
-        <v>463906.3246079746</v>
+        <v>463906.3246079747</v>
       </c>
       <c r="N2" t="n">
         <v>463906.3246079747</v>
       </c>
       <c r="O2" t="n">
-        <v>463906.3246079746</v>
+        <v>463906.3246079747</v>
       </c>
       <c r="P2" t="n">
         <v>463906.3246079747</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>299319.5565061381</v>
+        <v>299319.5565061378</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341488</v>
+        <v>47552.26579341477</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,7 +26438,7 @@
         <v>7940.571207054552</v>
       </c>
       <c r="I4" t="n">
-        <v>8116.79618547776</v>
+        <v>8116.796185477761</v>
       </c>
       <c r="J4" t="n">
         <v>8116.79618547776</v>
@@ -26447,7 +26447,7 @@
         <v>8116.796185477761</v>
       </c>
       <c r="L4" t="n">
-        <v>8116.796185477793</v>
+        <v>8116.79618547776</v>
       </c>
       <c r="M4" t="n">
         <v>8116.796185477761</v>
@@ -26478,7 +26478,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26487,7 +26487,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>101045.0534810299</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-869908.5386056653</v>
+        <v>-869908.5386056651</v>
       </c>
       <c r="C6" t="n">
-        <v>244843.2449702544</v>
+        <v>244843.2449702547</v>
       </c>
       <c r="D6" t="n">
         <v>244843.2449702545</v>
       </c>
       <c r="E6" t="n">
-        <v>124350.5829328594</v>
+        <v>127479.1533011145</v>
       </c>
       <c r="F6" t="n">
-        <v>306423.5627500499</v>
+        <v>309552.1331183048</v>
       </c>
       <c r="G6" t="n">
-        <v>306423.56275005</v>
+        <v>309552.133118305</v>
       </c>
       <c r="H6" t="n">
-        <v>306423.5627500499</v>
+        <v>309552.1331183047</v>
       </c>
       <c r="I6" t="n">
-        <v>55068.71438906863</v>
+        <v>55389.29803070307</v>
       </c>
       <c r="J6" t="n">
-        <v>186783.093085224</v>
+        <v>187103.6767268583</v>
       </c>
       <c r="K6" t="n">
-        <v>354388.2708952065</v>
+        <v>354708.854536841</v>
       </c>
       <c r="L6" t="n">
-        <v>354388.2708952065</v>
+        <v>354708.8545368409</v>
       </c>
       <c r="M6" t="n">
-        <v>306836.0051017916</v>
+        <v>307156.5887434262</v>
       </c>
       <c r="N6" t="n">
-        <v>354388.2708952066</v>
+        <v>354708.854536841</v>
       </c>
       <c r="O6" t="n">
-        <v>354388.2708952065</v>
+        <v>354708.854536841</v>
       </c>
       <c r="P6" t="n">
-        <v>354388.2708952067</v>
+        <v>354708.854536841</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26807,7 +26807,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>1171.71549554309</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>277.4137283979878</v>
+        <v>277.4137283979876</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>340.3140401407978</v>
+        <v>340.3140401407977</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>115.7798716597961</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>37.83862803519872</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>103.4039556492612</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>75.88999854998877</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>244.2669144429829</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>89.43037488097173</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27830,7 +27830,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>46.91356563188745</v>
+        <v>171.5217552027605</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>115.7798716597966</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>293.9328867236933</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>80.85095794181458</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>195.5290386500999</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,7 +32314,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32326,7 +32326,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,10 +32785,10 @@
         <v>28.40144645885672</v>
       </c>
       <c r="I24" t="n">
-        <v>101.2494798828453</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.8363116122763</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>474.8665096620016</v>
@@ -32797,10 +32797,10 @@
         <v>638.5166244076756</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4990333258297</v>
+        <v>745.1187838002508</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>190.8500312698592</v>
       </c>
       <c r="O24" t="n">
         <v>699.679049070663</v>
@@ -32809,7 +32809,7 @@
         <v>561.5541216737982</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.3840589185131</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,19 +33022,19 @@
         <v>28.40144645885672</v>
       </c>
       <c r="I27" t="n">
-        <v>101.2494798828453</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.8363116122763</v>
       </c>
       <c r="K27" t="n">
-        <v>474.8665096620016</v>
+        <v>383.3761439029179</v>
       </c>
       <c r="L27" t="n">
         <v>638.5166244076756</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4990333258297</v>
+        <v>745.1187838002508</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
@@ -33046,7 +33046,7 @@
         <v>561.5541216737982</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.3840589185131</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>117.9333660065834</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>466.4238188159145</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34801,7 +34801,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750467</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750462</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35974,7 +35974,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.727099882845252</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>150.9986849456097</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.0250706876427</v>
@@ -36445,10 +36445,10 @@
         <v>499.9622446278015</v>
       </c>
       <c r="M24" t="n">
-        <v>274.3649994038114</v>
+        <v>602.9847498782324</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>59.50831918652594</v>
       </c>
       <c r="O24" t="n">
         <v>557.0828046262186</v>
@@ -36457,7 +36457,7 @@
         <v>427.579714259468</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.4022848324916</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.727099882845252</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>150.9986849456097</v>
       </c>
       <c r="K27" t="n">
-        <v>337.0250706876427</v>
+        <v>245.5347049285589</v>
       </c>
       <c r="L27" t="n">
         <v>499.9622446278015</v>
       </c>
       <c r="M27" t="n">
-        <v>274.3649994038114</v>
+        <v>602.9847498782324</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>427.579714259468</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.4022848324916</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>631.5819413035499</v>
       </c>
       <c r="M32" t="n">
-        <v>734.7459332636478</v>
+        <v>734.7459332636464</v>
       </c>
       <c r="N32" t="n">
         <v>751.2953031209472</v>
